--- a/SALT/LiCl-KCl-NaCl.xlsx
+++ b/SALT/LiCl-KCl-NaCl.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/SALT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/SALT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A82951-988F-824C-AC1E-C1B4932285B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597E8F7B-E703-4946-9301-8D815D61520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21020" yWindow="7700" windowWidth="27640" windowHeight="16940" xr2:uid="{EDE4FA07-EADB-3B4A-9A20-31CBF45F8AD0}"/>
+    <workbookView xWindow="400" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{EDE4FA07-EADB-3B4A-9A20-31CBF45F8AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>LiCl</t>
   </si>
@@ -36,47 +46,45 @@
     <t>NaCl</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>weight percent</t>
-  </si>
-  <si>
-    <t>at %</t>
-  </si>
-  <si>
-    <t>LiCl-KCl</t>
-  </si>
-  <si>
-    <t>#NaCl</t>
-  </si>
-  <si>
-    <t>#LiKCl</t>
-  </si>
-  <si>
-    <t>#Li</t>
-  </si>
-  <si>
-    <t>#K</t>
-  </si>
-  <si>
-    <t>weight% NaCl</t>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>at% Na</t>
+  </si>
+  <si>
+    <t>wt% Na</t>
+  </si>
+  <si>
+    <t>New Comp</t>
+  </si>
+  <si>
+    <t>My old</t>
+  </si>
+  <si>
+    <t>Eut LiCl-KCl</t>
+  </si>
+  <si>
+    <t>26 wt% Na</t>
+  </si>
+  <si>
+    <t>Ruchi Comp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -104,13 +112,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,343 +428,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05675F76-78CE-9142-8FF8-546BA5E2835A}">
-  <dimension ref="B2:G24"/>
+  <dimension ref="B3:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="C2" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C6">
+        <v>35.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <f>(F7/F10)*$C$8/((F7/F10)*$C$8+(1-F7/100)*$C$12)</f>
+        <v>0.24825654590977889</v>
+      </c>
+      <c r="H7">
+        <f>F7/F10</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>C3+C6</f>
+        <v>58.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f>F10-F7-F9</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>C4+C6</f>
+        <v>42.5</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>58</v>
-      </c>
-      <c r="D3">
-        <f>35.5+7</f>
-        <v>42.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
+      <c r="F9">
+        <f>ROUND((F10-F7)*0.42,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <f>39+35.5</f>
+      <c r="C10">
+        <f>C5+C6</f>
         <v>74.5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f>C10*0.42+0.58*C9</f>
+        <v>55.94</v>
+      </c>
+      <c r="F12">
+        <f>F9/(F8+F9)</f>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
-        <f>SUM(D3:D4)</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <f>23+35.5</f>
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="C10" t="s">
+      <c r="F15">
+        <v>41</v>
+      </c>
+      <c r="G15">
+        <f>(F15/F18)*$C$8/((F15/F18)*$C$8+(1-F15/100)*$C$12)</f>
+        <v>0.42086626331821941</v>
+      </c>
+      <c r="H15">
+        <f>F15/F18</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F15:F17)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>F17/(F16+F17)</f>
+        <v>0.42372881355932202</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H22" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="C11">
-        <f>100-D11</f>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <f>(F23/F26)*$C$8/((F23/F26)*$C$8+(1-F23/100)*$C$12)</f>
+        <v>0.15579504296569846</v>
+      </c>
+      <c r="H23">
+        <f>F23/F26</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f>F26-F23-F25</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <f>ROUND((F26-F23)*0.42,0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26">
         <v>100</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f>C11*0.58</f>
-        <v>57.999999999999993</v>
-      </c>
-      <c r="F11" s="1">
-        <f>C11-E11</f>
-        <v>42.000000000000007</v>
-      </c>
-      <c r="G11" s="2">
-        <f>D11*D$7/(D11*D$7+C11*D$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12">
-        <f t="shared" ref="C12:C22" si="0">100-D12</f>
-        <v>90</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" ref="E12:E17" si="1">C12*0.58</f>
-        <v>52.199999999999996</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ref="F12:F17" si="2">C12-E12</f>
-        <v>37.800000000000004</v>
-      </c>
-      <c r="G12" s="2">
-        <f>D12*D$7/(D12*D$7+C12*D$5)</f>
-        <v>5.2631578947368418E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>46.4</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>33.6</v>
-      </c>
-      <c r="G13" s="2">
-        <f>D13*D$7/(D13*D$7+C13*D$5)</f>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>40.599999999999994</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>29.400000000000006</v>
-      </c>
-      <c r="G14" s="2">
-        <f>D14*D$7/(D14*D$7+C14*D$5)</f>
-        <v>0.17647058823529413</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D15">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>25.200000000000003</v>
-      </c>
-      <c r="G15" s="2">
-        <f>D15*D$7/(D15*D$7+C15*D$5)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="D16" s="3">
-        <v>41</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>34.22</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="2"/>
-        <v>24.78</v>
-      </c>
-      <c r="G16" s="5">
-        <f>D16*D$7/(D16*D$7+C16*D$5)</f>
-        <v>0.25786163522012578</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>28.999999999999996</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>21.000000000000004</v>
-      </c>
-      <c r="G17" s="2">
-        <f>D17*D$7/(D17*D$7+C17*D$5)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" ref="E18:E20" si="3">C18*0.58</f>
-        <v>23.2</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ref="F18:F20" si="4">C18-E18</f>
-        <v>16.8</v>
-      </c>
-      <c r="G18" s="2">
-        <f>D18*D$7/(D18*D$7+C18*D$5)</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>70</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="3"/>
-        <v>17.399999999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="4"/>
-        <v>12.600000000000001</v>
-      </c>
-      <c r="G19" s="2">
-        <f>D19*D$7/(D19*D$7+C19*D$5)</f>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="3"/>
-        <v>11.6</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="4"/>
-        <v>8.4</v>
-      </c>
-      <c r="G20" s="2">
-        <f>D20*D$7/(D20*D$7+C20*D$5)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <v>90</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" ref="E21:E22" si="5">C21*0.58</f>
-        <v>5.8</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" ref="F21:F22" si="6">C21-E21</f>
-        <v>4.2</v>
-      </c>
-      <c r="G21" s="2">
-        <f>D21*D$7/(D21*D$7+C21*D$5)</f>
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <f>D22*D$7/(D22*D$7+C22*D$5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f>F25/(F24+F25)</f>
+        <v>0.42352941176470588</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
